--- a/exampleProblems/Rotenone/Rotenone.xlsx
+++ b/exampleProblems/Rotenone/Rotenone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dch1amk/Dropbox/simpleNMR/exampleProblems/Rotenone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94249B5B-C0DB-8C4E-9BEE-4F491A22AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{94249B5B-C0DB-8C4E-9BEE-4F491A22AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675F188A-FDAA-48BF-9D4F-95EBA9BF229B}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -255,6 +256,12 @@
   </si>
   <si>
     <t>4.92 .. 4.89</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CC(=C)[C@H]1Cc2c(O1)ccc3c2O[C@@H]4COc5cc(OC)c(OC)cc5[C@@H]4C3=O</t>
   </si>
 </sst>
 </file>
@@ -704,28 +711,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -742,13 +756,13 @@
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -775,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -804,7 +818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -833,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -862,7 +876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -891,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -920,7 +934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -949,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -978,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1065,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1123,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1181,7 +1195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1210,7 +1224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1286,9 +1300,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -1321,7 +1335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1353,7 +1367,7 @@
       <c r="K2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1385,7 +1399,7 @@
       <c r="K3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1417,7 +1431,7 @@
       <c r="K4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1449,7 +1463,7 @@
       <c r="K5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1480,7 +1494,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1512,7 +1526,7 @@
       <c r="K7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1544,7 +1558,7 @@
       <c r="K8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1576,7 +1590,7 @@
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1608,7 +1622,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1640,7 +1654,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1671,7 +1685,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1702,7 +1716,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1734,7 +1748,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1766,7 +1780,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="17">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1797,7 +1811,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1828,7 +1842,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1841,7 +1855,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1854,7 +1868,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1867,7 +1881,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1880,7 +1894,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1893,10 +1907,10 @@
       <c r="J22" s="8"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="K24" s="11"/>
     </row>
   </sheetData>
@@ -1913,9 +1927,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -1959,7 +1973,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1992,7 +2006,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2025,7 +2039,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2058,7 +2072,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2091,7 +2105,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2124,7 +2138,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2157,7 +2171,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2190,7 +2204,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2223,7 +2237,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2256,7 +2270,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2289,7 +2303,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2322,7 +2336,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2355,7 +2369,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2388,7 +2402,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2421,7 +2435,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2454,7 +2468,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2487,7 +2501,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2529,7 +2543,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2560,7 +2574,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2591,7 +2605,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2622,7 +2636,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2653,7 +2667,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2684,7 +2698,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2715,7 +2729,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2746,7 +2760,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2777,7 +2791,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2808,7 +2822,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3251,13 +3265,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -3290,7 +3304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3321,7 +3335,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3352,7 +3366,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3383,7 +3397,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3414,7 +3428,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3445,7 +3459,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3476,7 +3490,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3507,7 +3521,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3538,7 +3552,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3569,7 +3583,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3600,7 +3614,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3631,7 +3645,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3662,7 +3676,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3693,7 +3707,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3724,7 +3738,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3755,7 +3769,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3786,7 +3800,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3817,7 +3831,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="11">
         <f>A18+1</f>
         <v>18</v>
@@ -3849,7 +3863,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="11">
         <f t="shared" ref="A20:A55" si="0">A19+1</f>
         <v>19</v>
@@ -3881,7 +3895,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3913,7 +3927,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3945,7 +3959,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3977,7 +3991,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4009,7 +4023,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4041,7 +4055,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4073,7 +4087,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4105,7 +4119,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4137,7 +4151,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="17">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4180,7 +4194,7 @@
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
     </row>
-    <row r="30" spans="1:22" ht="17">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4212,7 +4226,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="17">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4244,7 +4258,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="17">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4276,7 +4290,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4308,7 +4322,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4340,7 +4354,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4372,7 +4386,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4404,7 +4418,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4436,7 +4450,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4468,7 +4482,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:11" ht="16.5">
       <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4500,7 +4514,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" ht="17">
+    <row r="40" spans="1:11" ht="16.5">
       <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4532,7 +4546,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="17">
+    <row r="41" spans="1:11" ht="16.5">
       <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4564,7 +4578,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="17">
+    <row r="42" spans="1:11" ht="16.5">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4596,7 +4610,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" ht="17">
+    <row r="43" spans="1:11" ht="16.5">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4628,7 +4642,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" ht="17">
+    <row r="44" spans="1:11" ht="16.5">
       <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4660,7 +4674,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" ht="17">
+    <row r="45" spans="1:11" ht="16.5">
       <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4692,7 +4706,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" ht="17">
+    <row r="46" spans="1:11" ht="16.5">
       <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4724,7 +4738,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="17">
+    <row r="47" spans="1:11" ht="16.5">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4756,7 +4770,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="17">
+    <row r="48" spans="1:11" ht="16.5">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4788,7 +4802,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="17">
+    <row r="49" spans="1:11" ht="16.5">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4820,7 +4834,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="17">
+    <row r="50" spans="1:11" ht="16.5">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4852,7 +4866,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="17">
+    <row r="51" spans="1:11" ht="16.5">
       <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4884,7 +4898,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="17">
+    <row r="52" spans="1:11" ht="16.5">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4916,7 +4930,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="17">
+    <row r="53" spans="1:11" ht="16.5">
       <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4948,7 +4962,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" ht="17">
+    <row r="54" spans="1:11" ht="16.5">
       <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4980,7 +4994,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="17">
+    <row r="55" spans="1:11" ht="16.5">
       <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5012,7 +5026,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="17">
+    <row r="56" spans="1:11" ht="16.5">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5149,9 +5163,9 @@
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>12</v>
@@ -5178,7 +5192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5203,7 +5217,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5228,7 +5242,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5253,7 +5267,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5278,7 +5292,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5303,7 +5317,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5328,7 +5342,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5353,7 +5367,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5378,7 +5392,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5403,7 +5417,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5428,7 +5442,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5453,7 +5467,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5478,7 +5492,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5503,7 +5517,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5528,7 +5542,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5553,7 +5567,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5578,7 +5592,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5603,7 +5617,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5628,7 +5642,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5653,7 +5667,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5678,7 +5692,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5703,7 +5717,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5728,7 +5742,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="17">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5844,9 +5858,9 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -6356,6 +6370,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -6572,36 +6601,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6624,9 +6627,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/Rotenone/Rotenone.xlsx
+++ b/exampleProblems/Rotenone/Rotenone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{94249B5B-C0DB-8C4E-9BEE-4F491A22AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675F188A-FDAA-48BF-9D4F-95EBA9BF229B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{94249B5B-C0DB-8C4E-9BEE-4F491A22AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EB98EA-B084-024D-9AD7-BD2FA8B7C41F}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="74">
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>C23H22O6</t>
+  </si>
+  <si>
+    <t>CC(=C)[C@H]1Cc2c(O1)ccc3c2O[C@@H]4COc5cc(OC)c(OC)cc5[C@@H]4C3=O</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -66,202 +81,190 @@
     <t>Method</t>
   </si>
   <si>
+    <t>A (m)</t>
+  </si>
+  <si>
+    <t>7.85 .. 7.80</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>B (d)</t>
+  </si>
+  <si>
+    <t>6.78 .. 6.73</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>C (d)</t>
+  </si>
+  <si>
+    <t>6.52 .. 6.47</t>
+  </si>
+  <si>
+    <t>D (s)</t>
+  </si>
+  <si>
+    <t>6.45 .. 6.42</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>E (t)</t>
+  </si>
+  <si>
+    <t>5.25 .. 5.19</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>8.96, 8.96</t>
+  </si>
+  <si>
     <t>F (dd)</t>
   </si>
   <si>
+    <t>5.08 .. 5.04</t>
+  </si>
+  <si>
     <t>dd</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>t</t>
+    <t>0.88, 1.61</t>
+  </si>
+  <si>
+    <t>O (d)</t>
+  </si>
+  <si>
+    <t>4.94 .. 4.92</t>
+  </si>
+  <si>
+    <t>P (m)</t>
+  </si>
+  <si>
+    <t>4.92 .. 4.89</t>
+  </si>
+  <si>
+    <t>G (dd)</t>
+  </si>
+  <si>
+    <t>4.62 .. 4.56</t>
+  </si>
+  <si>
+    <t>3.12, 12.06</t>
+  </si>
+  <si>
+    <t>H (dt)</t>
+  </si>
+  <si>
+    <t>4.19 .. 4.14</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>1.05, 1.05, 12.07</t>
+  </si>
+  <si>
+    <t>M (dt)</t>
+  </si>
+  <si>
+    <t>3.85 .. 3.81</t>
+  </si>
+  <si>
+    <t>0.96, 0.96, 4.07</t>
+  </si>
+  <si>
+    <t>N (s)</t>
+  </si>
+  <si>
+    <t>3.81 .. 3.77</t>
+  </si>
+  <si>
+    <t>I (s)</t>
+  </si>
+  <si>
+    <t>3.77 .. 3.73</t>
+  </si>
+  <si>
+    <t>J (dd)</t>
+  </si>
+  <si>
+    <t>3.34 .. 3.27</t>
+  </si>
+  <si>
+    <t>9.80, 15.76</t>
+  </si>
+  <si>
+    <t>K (dd)</t>
+  </si>
+  <si>
+    <t>2.98 .. 2.90</t>
+  </si>
+  <si>
+    <t>8.20, 15.74</t>
+  </si>
+  <si>
+    <t>L (t)</t>
+  </si>
+  <si>
+    <t>1.77 .. 1.74</t>
+  </si>
+  <si>
+    <t>1.17, 1.17</t>
+  </si>
+  <si>
+    <t>f2 (ppm)</t>
+  </si>
+  <si>
+    <t>f1 (ppm)</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Width f2</t>
+  </si>
+  <si>
+    <t>Width f1</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Impurity/Compound</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>ppm</t>
   </si>
   <si>
-    <t>Intensity</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>Impurity/Compound</t>
-  </si>
-  <si>
-    <t>Annotation</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>f2 (ppm)</t>
-  </si>
-  <si>
-    <t>f1 (ppm)</t>
-  </si>
-  <si>
-    <t>Width f2</t>
-  </si>
-  <si>
-    <t>Width f1</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>C23H22O6</t>
-  </si>
-  <si>
-    <t>A (m)</t>
-  </si>
-  <si>
-    <t>7.85 .. 7.80</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>B (d)</t>
-  </si>
-  <si>
-    <t>6.78 .. 6.73</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>C (d)</t>
-  </si>
-  <si>
-    <t>6.52 .. 6.47</t>
-  </si>
-  <si>
-    <t>D (s)</t>
-  </si>
-  <si>
-    <t>6.45 .. 6.42</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>E (t)</t>
-  </si>
-  <si>
-    <t>5.25 .. 5.19</t>
-  </si>
-  <si>
-    <t>8.96, 8.96</t>
-  </si>
-  <si>
-    <t>5.08 .. 5.04</t>
-  </si>
-  <si>
-    <t>0.88, 1.61</t>
-  </si>
-  <si>
-    <t>G (dd)</t>
-  </si>
-  <si>
-    <t>4.62 .. 4.56</t>
-  </si>
-  <si>
-    <t>3.12, 12.06</t>
-  </si>
-  <si>
-    <t>H (dt)</t>
-  </si>
-  <si>
-    <t>4.19 .. 4.14</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>1.05, 1.05, 12.07</t>
-  </si>
-  <si>
-    <t>I (s)</t>
-  </si>
-  <si>
-    <t>3.77 .. 3.73</t>
-  </si>
-  <si>
-    <t>J (dd)</t>
-  </si>
-  <si>
-    <t>3.34 .. 3.27</t>
-  </si>
-  <si>
-    <t>9.80, 15.76</t>
-  </si>
-  <si>
-    <t>K (dd)</t>
-  </si>
-  <si>
-    <t>2.98 .. 2.90</t>
-  </si>
-  <si>
-    <t>8.20, 15.74</t>
-  </si>
-  <si>
-    <t>L (t)</t>
-  </si>
-  <si>
-    <t>1.77 .. 1.74</t>
-  </si>
-  <si>
-    <t>1.17, 1.17</t>
-  </si>
-  <si>
-    <t>M (dt)</t>
-  </si>
-  <si>
-    <t>3.85 .. 3.81</t>
-  </si>
-  <si>
-    <t>0.96, 0.96, 4.07</t>
-  </si>
-  <si>
-    <t>N (s)</t>
-  </si>
-  <si>
-    <t>3.81 .. 3.77</t>
-  </si>
-  <si>
-    <t>O (d)</t>
-  </si>
-  <si>
-    <t>4.94 .. 4.92</t>
-  </si>
-  <si>
-    <t>P (m)</t>
-  </si>
-  <si>
-    <t>4.92 .. 4.89</t>
-  </si>
-  <si>
-    <t>smiles</t>
-  </si>
-  <si>
-    <t>CC(=C)[C@H]1Cc2c(O1)ccc3c2O[C@@H]4COc5cc(OC)c(OC)cc5[C@@H]4C3=O</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -423,13 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -446,6 +442,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,22 +713,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -756,51 +756,51 @@
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10">
         <v>7.83</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
@@ -809,27 +809,27 @@
         <v>0.95</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10">
         <v>0</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10">
         <v>6.76</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -838,27 +838,27 @@
         <v>0.95</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H3" s="10">
         <v>1.1499999999999999</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10">
         <v>6.49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -867,27 +867,27 @@
         <v>0.95</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H4" s="10">
         <v>8.58</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10">
         <v>6.44</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -896,27 +896,27 @@
         <v>0.96</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10">
         <v>5.22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -925,27 +925,27 @@
         <v>0.96</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10">
         <v>5.0599999999999996</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -954,27 +954,27 @@
         <v>0.96</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10">
         <v>4.92</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -983,27 +983,27 @@
         <v>1.06</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H8" s="10">
         <v>1.32</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10">
         <v>4.91</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -1012,27 +1012,27 @@
         <v>0.86</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10">
         <v>4.59</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -1041,27 +1041,27 @@
         <v>0.95</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10">
         <v>4.17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -1070,27 +1070,27 @@
         <v>0.94</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10">
         <v>3.83</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -1099,27 +1099,27 @@
         <v>0.99</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10">
         <v>3.79</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E13" s="10">
         <v>3</v>
@@ -1128,27 +1128,27 @@
         <v>2.89</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10">
         <v>3.75</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
@@ -1157,27 +1157,27 @@
         <v>2.86</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10">
         <v>3.3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -1186,27 +1186,27 @@
         <v>0.94</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10">
         <v>2.94</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -1215,27 +1215,27 @@
         <v>0.95</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10">
         <v>1.75</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10">
         <v>3</v>
@@ -1244,13 +1244,13 @@
         <v>2.84</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1297,45 +1297,45 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1358,16 +1358,16 @@
         <v>0.35</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1390,16 +1390,16 @@
         <v>0.31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1422,16 +1422,16 @@
         <v>0.31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1454,16 +1454,16 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1486,15 +1486,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>112.6</v>
       </c>
       <c r="D7" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="11">
         <v>8.31</v>
@@ -1517,16 +1517,16 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>112.6</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="11">
         <v>11.81</v>
@@ -1549,23 +1549,23 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>4.91</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>72.2</v>
       </c>
       <c r="D9" s="11">
@@ -1581,16 +1581,16 @@
         <v>-0.31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>66.25</v>
       </c>
       <c r="D10" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="11">
         <v>12.16</v>
@@ -1613,16 +1613,16 @@
         <v>-0.17</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>66.25</v>
       </c>
       <c r="D11" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="11">
         <v>9.5500000000000007</v>
@@ -1645,16 +1645,16 @@
         <v>-0.17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1677,15 +1677,15 @@
         <v>0.34</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1708,15 +1708,15 @@
         <v>0.72</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1739,16 +1739,16 @@
         <v>0.74</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>31.21</v>
       </c>
       <c r="D15" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="11">
         <v>10.42</v>
@@ -1771,16 +1771,16 @@
         <v>-0.12</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>31.21</v>
       </c>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="11">
         <v>13.29</v>
@@ -1803,15 +1803,15 @@
         <v>-0.13</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1834,15 +1834,15 @@
         <v>0.6</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1868,7 +1868,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1881,7 +1881,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1894,7 +1894,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1907,10 +1907,10 @@
       <c r="J22" s="8"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5">
+    <row r="23" spans="1:11" ht="17">
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="17">
       <c r="K24" s="11"/>
     </row>
   </sheetData>
@@ -1924,42 +1924,42 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -1973,7 +1973,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1996,17 +1996,17 @@
         <v>14143.58</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2029,17 +2029,17 @@
         <v>24752.1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2062,17 +2062,17 @@
         <v>5855.65</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2095,17 +2095,17 @@
         <v>40514.559999999998</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2128,17 +2128,17 @@
         <v>16587.009999999998</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2161,17 +2161,17 @@
         <v>30916.9</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2194,17 +2194,17 @@
         <v>2.85</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2227,17 +2227,17 @@
         <v>2351.34</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2260,17 +2260,17 @@
         <v>28122.87</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2293,17 +2293,17 @@
         <v>23493.69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2326,17 +2326,17 @@
         <v>14295.4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2359,17 +2359,17 @@
         <v>35602.589999999997</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2392,17 +2392,17 @@
         <v>2420.59</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2425,17 +2425,17 @@
         <v>3180.27</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2458,17 +2458,17 @@
         <v>8764.98</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2491,17 +2491,17 @@
         <v>21415.41</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2524,10 +2524,10 @@
         <v>6434.15</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -2543,7 +2543,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
+    <row r="19" spans="1:22" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2566,15 +2566,15 @@
         <v>12818.46</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2597,15 +2597,15 @@
         <v>56885.33</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="17">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2628,15 +2628,15 @@
         <v>11457.16</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="17">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2659,15 +2659,15 @@
         <v>47860.33</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="17">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2690,15 +2690,15 @@
         <v>43183.72</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2721,15 +2721,15 @@
         <v>37804.870000000003</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="17">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2752,15 +2752,15 @@
         <v>26429.18</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="17">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2783,15 +2783,15 @@
         <v>10952.06</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="17">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2814,15 +2814,15 @@
         <v>9365.66</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="17">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2845,10 +2845,10 @@
         <v>28915.87</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -3269,42 +3269,42 @@
       <selection activeCell="A20" sqref="A20:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3327,15 +3327,15 @@
         <v>4594.08</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3358,15 +3358,15 @@
         <v>1445.74</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3389,15 +3389,15 @@
         <v>1923.61</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3420,15 +3420,15 @@
         <v>4696.4799999999996</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3451,15 +3451,15 @@
         <v>4770.71</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3482,15 +3482,15 @@
         <v>61.18</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3513,15 +3513,15 @@
         <v>3465.64</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3544,15 +3544,15 @@
         <v>6823.43</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3575,15 +3575,15 @@
         <v>2175.52</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3606,15 +3606,15 @@
         <v>1406.1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3637,15 +3637,15 @@
         <v>1215.57</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3668,15 +3668,15 @@
         <v>5324.22</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3699,15 +3699,15 @@
         <v>4518.55</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3730,15 +3730,15 @@
         <v>1717.52</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3761,15 +3761,15 @@
         <v>4590.3</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3792,15 +3792,15 @@
         <v>6403.28</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3823,15 +3823,15 @@
         <v>141.87</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
+    <row r="19" spans="1:22" ht="17">
       <c r="A19" s="11">
         <f>A18+1</f>
         <v>18</v>
@@ -3855,15 +3855,15 @@
         <v>3908.12</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="11">
         <f t="shared" ref="A20:A55" si="0">A19+1</f>
         <v>19</v>
@@ -3887,15 +3887,15 @@
         <v>1765.63</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="17">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3919,15 +3919,15 @@
         <v>2380.9899999999998</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="17">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3951,15 +3951,15 @@
         <v>3065.35</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="17">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3983,15 +3983,15 @@
         <v>2825.44</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4015,15 +4015,15 @@
         <v>1840.03</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="17">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4047,15 +4047,15 @@
         <v>8329.25</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="17">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4079,15 +4079,15 @@
         <v>17736.009999999998</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="17">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4111,15 +4111,15 @@
         <v>13295.32</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="17">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4143,15 +4143,15 @@
         <v>12837.98</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5">
+    <row r="29" spans="1:22" ht="17">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4175,26 +4175,26 @@
         <v>3929.08</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="1:22" ht="17">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4218,15 +4218,15 @@
         <v>3215.84</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="17">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4250,15 +4250,15 @@
         <v>8754.33</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="17">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4282,15 +4282,15 @@
         <v>10949.03</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5">
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4314,15 +4314,15 @@
         <v>1491.77</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5">
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4346,15 +4346,15 @@
         <v>1824.03</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4378,15 +4378,15 @@
         <v>5148.0600000000004</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5">
+    <row r="36" spans="1:11" ht="17">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4410,15 +4410,15 @@
         <v>2136.3200000000002</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5">
+    <row r="37" spans="1:11" ht="17">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4442,15 +4442,15 @@
         <v>1952.56</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5">
+    <row r="38" spans="1:11" ht="17">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4474,15 +4474,15 @@
         <v>3111.93</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5">
+    <row r="39" spans="1:11" ht="17">
       <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4506,15 +4506,15 @@
         <v>4629</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5">
+    <row r="40" spans="1:11" ht="17">
       <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4538,15 +4538,15 @@
         <v>33.520000000000003</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5">
+    <row r="41" spans="1:11" ht="17">
       <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4570,15 +4570,15 @@
         <v>4844.7299999999996</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5">
+    <row r="42" spans="1:11" ht="17">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4602,15 +4602,15 @@
         <v>12480.95</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5">
+    <row r="43" spans="1:11" ht="17">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4634,15 +4634,15 @@
         <v>11779.25</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5">
+    <row r="44" spans="1:11" ht="17">
       <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4666,15 +4666,15 @@
         <v>5271.1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5">
+    <row r="45" spans="1:11" ht="17">
       <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4698,15 +4698,15 @@
         <v>7395.23</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5">
+    <row r="46" spans="1:11" ht="17">
       <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4730,15 +4730,15 @@
         <v>18421.419999999998</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5">
+    <row r="47" spans="1:11" ht="17">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4762,15 +4762,15 @@
         <v>2595.65</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5">
+    <row r="48" spans="1:11" ht="17">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4794,15 +4794,15 @@
         <v>2615.27</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5">
+    <row r="49" spans="1:11" ht="17">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4826,15 +4826,15 @@
         <v>1733.17</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5">
+    <row r="50" spans="1:11" ht="17">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4858,15 +4858,15 @@
         <v>7204.65</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5">
+    <row r="51" spans="1:11" ht="17">
       <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4890,15 +4890,15 @@
         <v>9129.77</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5">
+    <row r="52" spans="1:11" ht="17">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4922,15 +4922,15 @@
         <v>7196.6</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5">
+    <row r="53" spans="1:11" ht="17">
       <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4954,15 +4954,15 @@
         <v>18585.169999999998</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5">
+    <row r="54" spans="1:11" ht="17">
       <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4986,15 +4986,15 @@
         <v>12406.55</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5">
+    <row r="55" spans="1:11" ht="17">
       <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5018,15 +5018,15 @@
         <v>14415.05</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5">
+    <row r="56" spans="1:11" ht="17">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5163,36 +5163,36 @@
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5209,15 +5209,15 @@
         <v>2373.59</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5234,15 +5234,15 @@
         <v>2041.48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5259,15 +5259,15 @@
         <v>1812.56</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5284,15 +5284,15 @@
         <v>1964.07</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5309,15 +5309,15 @@
         <v>2119.0700000000002</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5334,15 +5334,15 @@
         <v>2035.21</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5359,15 +5359,15 @@
         <v>2501.4899999999998</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5384,15 +5384,15 @@
         <v>5071.0200000000004</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5409,15 +5409,15 @@
         <v>1953</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5434,15 +5434,15 @@
         <v>2519.0100000000002</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5459,15 +5459,15 @@
         <v>4988.17</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5484,15 +5484,15 @@
         <v>4711.2</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5509,15 +5509,15 @@
         <v>5160.7700000000004</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5534,15 +5534,15 @@
         <v>2444.59</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5559,15 +5559,15 @@
         <v>5145.74</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5584,15 +5584,15 @@
         <v>4925.3599999999997</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5609,15 +5609,15 @@
         <v>5349.05</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5634,15 +5634,15 @@
         <v>5269.98</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5659,15 +5659,15 @@
         <v>5351.29</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5684,15 +5684,15 @@
         <v>5220.7700000000004</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5709,15 +5709,15 @@
         <v>5165.04</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5734,15 +5734,15 @@
         <v>5519.65</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5759,10 +5759,10 @@
         <v>4553.96</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -5858,33 +5858,33 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5904,10 +5904,10 @@
         <v>9.57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
@@ -5929,10 +5929,10 @@
         <v>14.49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -5954,10 +5954,10 @@
         <v>13.64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
@@ -5979,10 +5979,10 @@
         <v>16.45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
@@ -6004,10 +6004,10 @@
         <v>46.81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
@@ -6029,10 +6029,10 @@
         <v>54.31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
@@ -6054,10 +6054,10 @@
         <v>20.46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
@@ -6079,10 +6079,10 @@
         <v>38.04</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
@@ -6104,10 +6104,10 @@
         <v>37.6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
@@ -6129,19 +6129,19 @@
         <v>37.6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>3.83</v>
       </c>
       <c r="C12" s="1">
@@ -6154,19 +6154,19 @@
         <v>37.6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>3.79</v>
       </c>
       <c r="C13" s="1">
@@ -6179,19 +6179,19 @@
         <v>37.6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="12">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>3.75</v>
       </c>
       <c r="C14" s="1">
@@ -6204,19 +6204,19 @@
         <v>37.6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>3.3</v>
       </c>
       <c r="C15" s="1">
@@ -6229,19 +6229,19 @@
         <v>37.6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="12">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>2.94</v>
       </c>
       <c r="C16" s="1">
@@ -6254,19 +6254,19 @@
         <v>37.6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="12">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>1.75</v>
       </c>
       <c r="C17" s="1">
@@ -6279,10 +6279,10 @@
         <v>37.6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
@@ -6310,8 +6310,8 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6319,8 +6319,8 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6328,8 +6328,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6337,8 +6337,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6346,8 +6346,8 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6355,8 +6355,8 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6366,6 +6366,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C907168-CF6E-3940-B741-7ECE0757AA97}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6379,12 +6427,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -6601,6 +6643,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
@@ -6610,23 +6658,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6643,4 +6674,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/exampleProblems/Rotenone/Rotenone.xlsx
+++ b/exampleProblems/Rotenone/Rotenone.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Rotenone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC\OneDrive - Durham University\projects\programming\2022\python\python\rdkit37\projects\simpleNMR\exampleProblems\Rotenone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{94249B5B-C0DB-8C4E-9BEE-4F491A22AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EB98EA-B084-024D-9AD7-BD2FA8B7C41F}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="1005" windowWidth="20295" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -270,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -710,17 +709,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -749,20 +748,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>4</v>
@@ -789,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -818,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -847,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -876,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -905,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -934,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -963,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -992,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1293,16 +1292,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>59</v>
@@ -1335,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1367,7 +1366,7 @@
       <c r="K2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1399,7 +1398,7 @@
       <c r="K3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1431,7 +1430,7 @@
       <c r="K4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1463,7 +1462,7 @@
       <c r="K5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1494,7 +1493,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1526,7 +1525,7 @@
       <c r="K7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1558,7 +1557,7 @@
       <c r="K8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1654,7 +1653,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1716,7 +1715,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1748,7 +1747,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1780,7 +1779,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="17">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1811,7 +1810,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1842,7 +1841,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1855,7 +1854,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1868,7 +1867,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1881,7 +1880,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1894,7 +1893,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1907,10 +1906,10 @@
       <c r="J22" s="8"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="K24" s="11"/>
     </row>
   </sheetData>
@@ -1920,16 +1919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>59</v>
@@ -1973,7 +1972,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2039,7 +2038,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2105,7 +2104,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2171,7 +2170,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2204,7 +2203,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2237,7 +2236,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2270,7 +2269,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2303,7 +2302,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2336,7 +2335,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2369,7 +2368,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2402,7 +2401,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2468,7 +2467,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2501,7 +2500,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2543,7 +2542,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2574,7 +2573,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2605,7 +2604,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2636,7 +2635,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2667,7 +2666,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2698,7 +2697,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2729,7 +2728,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2760,7 +2759,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2791,7 +2790,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2822,7 +2821,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3262,16 +3261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>59</v>
@@ -3304,7 +3303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3335,7 +3334,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3366,7 +3365,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3397,7 +3396,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3428,7 +3427,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3490,7 +3489,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3521,7 +3520,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3552,7 +3551,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3645,7 +3644,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3676,7 +3675,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3800,7 +3799,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="11">
         <f>A18+1</f>
         <v>18</v>
@@ -3863,7 +3862,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="11">
         <f t="shared" ref="A20:A55" si="0">A19+1</f>
         <v>19</v>
@@ -3895,7 +3894,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3927,7 +3926,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3959,7 +3958,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3991,7 +3990,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4023,7 +4022,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4055,7 +4054,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4087,7 +4086,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4119,7 +4118,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4151,7 +4150,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="17">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4194,7 +4193,7 @@
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
     </row>
-    <row r="30" spans="1:22" ht="17">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4226,7 +4225,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="17">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4258,7 +4257,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="17">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4290,7 +4289,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4322,7 +4321,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4354,7 +4353,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4386,7 +4385,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4418,7 +4417,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4450,7 +4449,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4482,7 +4481,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:11" ht="16.5">
       <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4514,7 +4513,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" ht="17">
+    <row r="40" spans="1:11" ht="16.5">
       <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4546,7 +4545,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="17">
+    <row r="41" spans="1:11" ht="16.5">
       <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4578,7 +4577,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="17">
+    <row r="42" spans="1:11" ht="16.5">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4610,7 +4609,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" ht="17">
+    <row r="43" spans="1:11" ht="16.5">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4642,7 +4641,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" ht="17">
+    <row r="44" spans="1:11" ht="16.5">
       <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4674,7 +4673,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" ht="17">
+    <row r="45" spans="1:11" ht="16.5">
       <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4706,7 +4705,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" ht="17">
+    <row r="46" spans="1:11" ht="16.5">
       <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4738,7 +4737,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="17">
+    <row r="47" spans="1:11" ht="16.5">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4770,7 +4769,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="17">
+    <row r="48" spans="1:11" ht="16.5">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4802,7 +4801,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="17">
+    <row r="49" spans="1:11" ht="16.5">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4834,7 +4833,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="17">
+    <row r="50" spans="1:11" ht="16.5">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4866,7 +4865,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="17">
+    <row r="51" spans="1:11" ht="16.5">
       <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4898,7 +4897,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="17">
+    <row r="52" spans="1:11" ht="16.5">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4930,7 +4929,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="17">
+    <row r="53" spans="1:11" ht="16.5">
       <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4962,7 +4961,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" ht="17">
+    <row r="54" spans="1:11" ht="16.5">
       <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4994,7 +4993,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="17">
+    <row r="55" spans="1:11" ht="16.5">
       <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5026,7 +5025,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="17">
+    <row r="56" spans="1:11" ht="16.5">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5156,16 +5155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>71</v>
@@ -5192,7 +5191,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5217,7 +5216,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5242,7 +5241,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5267,7 +5266,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5292,7 +5291,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5317,7 +5316,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5342,7 +5341,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5392,7 +5391,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5417,7 +5416,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5442,7 +5441,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5467,7 +5466,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5517,7 +5516,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5542,7 +5541,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5567,7 +5566,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5592,7 +5591,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5642,7 +5641,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5667,7 +5666,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5717,7 +5716,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5742,7 +5741,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="17">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -5851,16 +5850,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>71</v>
@@ -6370,16 +6369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C907168-CF6E-3940-B741-7ECE0757AA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>59</v>
@@ -6418,15 +6417,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -6643,6 +6633,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6650,14 +6649,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6672,6 +6663,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exampleProblems/Rotenone/Rotenone.xlsx
+++ b/exampleProblems/Rotenone/Rotenone.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC\OneDrive - Durham University\projects\programming\2022\python\python\rdkit37\projects\simpleNMR\exampleProblems\Rotenone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_4EF8B8BE6A089523EB283CD275F1813C4B55408E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4D98CA-57BB-449A-A1A8-F4EE037D2705}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1005" windowWidth="20295" windowHeight="13620" activeTab="2"/>
+    <workbookView xWindow="3000" yWindow="1800" windowWidth="23880" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -33,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="74">
   <si>
     <t>molecule</t>
   </si>
@@ -269,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -394,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -426,6 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -748,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1292,554 +1288,554 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:13" ht="21">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="11">
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="1">
         <v>7.83</v>
       </c>
-      <c r="C2" s="11">
-        <v>129.93</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="1">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>16.59</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="1">
         <v>52.22</v>
       </c>
-      <c r="G2" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="G2" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="1">
         <v>6.76</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="1">
         <v>110.35</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="1">
         <v>0.1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1">
         <v>46.09</v>
       </c>
-      <c r="G3" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="G3" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="11">
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>6.49</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="1">
         <v>104.86</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>16.649999999999999</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="1">
         <v>44.18</v>
       </c>
-      <c r="G4" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="G4" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="11">
+    <row r="5" spans="1:13">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>6.44</v>
       </c>
-      <c r="C5" s="11">
-        <v>100.88</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="1">
+        <v>100.89</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="1">
         <v>8.31</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="1">
         <v>42.58</v>
       </c>
-      <c r="G5" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="G5" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="11">
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>5.22</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="1">
         <v>87.81</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>22.3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="1">
         <v>40.380000000000003</v>
       </c>
-      <c r="G6" s="11">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
-      <c r="A7" s="11">
+      <c r="G6" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="C7" s="11">
-        <v>112.6</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="1">
+        <v>112.53</v>
+      </c>
+      <c r="D7" s="1">
         <v>-1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="1">
         <v>8.31</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="1">
         <v>55.12</v>
       </c>
-      <c r="G7" s="11">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>4.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>112.6</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="1">
+        <v>112.53</v>
+      </c>
+      <c r="D8" s="1">
         <v>-1</v>
       </c>
-      <c r="E8" s="11">
-        <v>11.81</v>
-      </c>
-      <c r="F8" s="11">
-        <v>15.01</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="E8" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>54.72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="11">
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>4.91</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>72.2</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8.6</v>
-      </c>
-      <c r="F9" s="11">
-        <v>54.72</v>
-      </c>
-      <c r="G9" s="11">
-        <v>-0.31</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11.58</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39.11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="C10" s="1">
         <v>66.25</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="1">
         <v>-1</v>
       </c>
-      <c r="E10" s="11">
-        <v>12.16</v>
-      </c>
-      <c r="F10" s="11">
-        <v>10.83</v>
-      </c>
-      <c r="G10" s="11">
-        <v>-0.17</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="E10" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="F10" s="1">
+        <v>57.22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="11">
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>4.17</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="1">
         <v>66.25</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="1">
         <v>-1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="1">
         <v>55.31</v>
       </c>
-      <c r="G11" s="11">
-        <v>-0.17</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="G11" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="11">
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>3.83</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="1">
         <v>44.58</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>9.65</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="1">
         <v>56.83</v>
       </c>
-      <c r="G12" s="11">
-        <v>0.34</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5">
-      <c r="A13" s="11">
+      <c r="G12" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="1">
         <v>3.79</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="1">
         <v>55.83</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="1">
         <v>0.1</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="1">
         <v>11.17</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="1">
         <v>39.56</v>
       </c>
-      <c r="G13" s="11">
-        <v>0.72</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5">
-      <c r="A14" s="11">
+      <c r="G13" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="1">
         <v>3.75</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="1">
         <v>56.3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="1">
         <v>0.1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="1">
         <v>8.7200000000000006</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="1">
         <v>55.64</v>
       </c>
-      <c r="G14" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="G14" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="11">
+    <row r="15" spans="1:13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="1">
         <v>3.3</v>
       </c>
-      <c r="C15" s="11">
-        <v>31.21</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="1">
+        <v>31.26</v>
+      </c>
+      <c r="D15" s="1">
         <v>-1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="1">
         <v>10.42</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="1">
         <v>50.06</v>
       </c>
-      <c r="G15" s="11">
-        <v>-0.12</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="G15" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
-      <c r="A16" s="11">
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="1">
         <v>2.94</v>
       </c>
-      <c r="C16" s="11">
-        <v>31.21</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="1">
+        <v>31.26</v>
+      </c>
+      <c r="D16" s="1">
         <v>-1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="1">
         <v>13.29</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="1">
         <v>48.98</v>
       </c>
-      <c r="G16" s="11">
-        <v>-0.13</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5">
-      <c r="A17" s="11">
+      <c r="G16" s="1">
+        <v>-0.89</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>1.75</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>17.11</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>0.1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>9.64</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>39.950000000000003</v>
       </c>
-      <c r="G17" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="G17" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="5"/>
@@ -1919,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,1771 +3257,799 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="11">
+    <row r="2" spans="1:11">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="1">
         <v>7.82</v>
       </c>
-      <c r="C2" s="11">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="D2" s="11">
-        <v>87.3</v>
-      </c>
-      <c r="E2" s="11">
-        <v>5.31</v>
-      </c>
-      <c r="F2" s="11">
-        <v>52.84</v>
-      </c>
-      <c r="G2" s="11">
-        <v>4594.08</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5">
-      <c r="A3" s="11">
+      <c r="C2" s="1">
+        <v>188.9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19.23</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1606.65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>7.82</v>
-      </c>
-      <c r="C3" s="11">
-        <v>167.32</v>
-      </c>
-      <c r="D3" s="11">
-        <v>27.9</v>
-      </c>
-      <c r="E3" s="11">
-        <v>5.41</v>
-      </c>
-      <c r="F3" s="11">
-        <v>51.11</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1445.74</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>7.82</v>
-      </c>
-      <c r="C4" s="11">
-        <v>188.88</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44</v>
-      </c>
-      <c r="E4" s="11">
-        <v>4.47</v>
-      </c>
-      <c r="F4" s="11">
-        <v>52.17</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1923.61</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5">
-      <c r="A5" s="11">
+      <c r="B3" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="C3" s="1">
+        <v>113.31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F3" s="1">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1323.8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>6.77</v>
-      </c>
-      <c r="C5" s="11">
-        <v>147.35</v>
-      </c>
-      <c r="D5" s="11">
-        <v>95</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="B4" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55.91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2015.93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F5" s="11">
-        <v>52.05</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4696.4799999999996</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>6.77</v>
-      </c>
-      <c r="C6" s="11">
-        <v>149.46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>97.8</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5.03</v>
-      </c>
-      <c r="F6" s="11">
-        <v>51.62</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4770.71</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="11">
+      <c r="C5" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.74</v>
+      </c>
+      <c r="F5" s="1">
+        <v>53.81</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1569.06</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>6.76</v>
-      </c>
-      <c r="C7" s="11">
-        <v>44.02</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="F7" s="11">
-        <v>26.02</v>
-      </c>
-      <c r="G7" s="11">
-        <v>61.18</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="11">
+      <c r="B6" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13.81</v>
+      </c>
+      <c r="F6" s="1">
+        <v>56.61</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5881.68</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>6.76</v>
-      </c>
-      <c r="C8" s="11">
-        <v>104.81</v>
-      </c>
-      <c r="D8" s="11">
-        <v>47.2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>7.49</v>
-      </c>
-      <c r="F8" s="11">
-        <v>52.32</v>
-      </c>
-      <c r="G8" s="11">
-        <v>3465.64</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="11">
+      <c r="B7" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="C7" s="1">
+        <v>147.34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="G7" s="1">
+        <v>736.79</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>6.75</v>
-      </c>
-      <c r="C9" s="11">
-        <v>143.83000000000001</v>
-      </c>
-      <c r="D9" s="11">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="E9" s="11">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="F9" s="11">
-        <v>52.56</v>
-      </c>
-      <c r="G9" s="11">
-        <v>6823.43</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5">
-      <c r="A10" s="11">
+      <c r="B8" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="C8" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>372.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.46</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6511.38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="C10" s="11">
-        <v>167.32</v>
-      </c>
-      <c r="D10" s="11">
-        <v>39.4</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="F10" s="11">
-        <v>51.68</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2175.52</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>6.49</v>
-      </c>
-      <c r="C11" s="11">
-        <v>113.31</v>
-      </c>
-      <c r="D11" s="11">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4.47</v>
-      </c>
-      <c r="F11" s="11">
-        <v>48.28</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1406.1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>6.49</v>
-      </c>
-      <c r="C12" s="11">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="D12" s="11">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="F12" s="11">
-        <v>51.36</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1215.57</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>6.44</v>
-      </c>
-      <c r="C13" s="11">
-        <v>104.81</v>
-      </c>
-      <c r="D13" s="11">
-        <v>123.3</v>
-      </c>
-      <c r="E13" s="11">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="F13" s="11">
-        <v>52.4</v>
-      </c>
-      <c r="G13" s="11">
-        <v>5324.22</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>6.44</v>
-      </c>
-      <c r="C14" s="11">
-        <v>147.35</v>
-      </c>
-      <c r="D14" s="11">
-        <v>111.1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4.21</v>
-      </c>
-      <c r="F14" s="11">
-        <v>51.53</v>
-      </c>
-      <c r="G14" s="11">
-        <v>4518.55</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>6.44</v>
-      </c>
-      <c r="C15" s="11">
-        <v>44.59</v>
-      </c>
-      <c r="D15" s="11">
-        <v>30.6</v>
-      </c>
-      <c r="E15" s="11">
-        <v>5.73</v>
-      </c>
-      <c r="F15" s="11">
-        <v>52.18</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1717.52</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>6.43</v>
-      </c>
-      <c r="C16" s="11">
-        <v>149.46</v>
-      </c>
-      <c r="D16" s="11">
-        <v>101.9</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4.72</v>
-      </c>
-      <c r="F16" s="11">
-        <v>50.92</v>
-      </c>
-      <c r="G16" s="11">
-        <v>4590.3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:22" ht="16.5">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>6.43</v>
-      </c>
-      <c r="C17" s="11">
-        <v>143.83000000000001</v>
-      </c>
-      <c r="D17" s="11">
-        <v>138</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4.78</v>
-      </c>
-      <c r="F17" s="11">
-        <v>51.75</v>
-      </c>
-      <c r="G17" s="11">
-        <v>6403.28</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5.22</v>
-      </c>
-      <c r="C18" s="11">
-        <v>31.31</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2.98</v>
-      </c>
-      <c r="F18" s="11">
-        <v>53.43</v>
-      </c>
-      <c r="G18" s="11">
-        <v>141.87</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.5">
-      <c r="A19" s="11">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C19" s="11">
-        <v>87.82</v>
-      </c>
-      <c r="D19" s="11">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="E19" s="11">
-        <v>10.14</v>
-      </c>
-      <c r="F19" s="11">
-        <v>53.64</v>
-      </c>
-      <c r="G19" s="11">
-        <v>3908.12</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5">
-      <c r="A20" s="11">
-        <f t="shared" ref="A20:A55" si="0">A19+1</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C20" s="11">
-        <v>143.01</v>
-      </c>
-      <c r="D20" s="11">
-        <v>18.2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>9.49</v>
-      </c>
-      <c r="F20" s="11">
-        <v>54.44</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1765.63</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5">
-      <c r="A21" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>5.05</v>
-      </c>
-      <c r="C21" s="11">
-        <v>17.11</v>
-      </c>
-      <c r="D21" s="11">
-        <v>27.8</v>
-      </c>
-      <c r="E21" s="11">
-        <v>8.44</v>
-      </c>
-      <c r="F21" s="11">
-        <v>54.04</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2380.9899999999998</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="B9" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>143.86000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>376.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10.59</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6249.99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="1"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="1"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="J18" s="1"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="J19" s="1"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="J20" s="1"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:22" ht="16.5">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>4.92</v>
-      </c>
-      <c r="C22" s="11">
-        <v>17.11</v>
-      </c>
-      <c r="D22" s="11">
-        <v>20.9</v>
-      </c>
-      <c r="E22" s="11">
-        <v>13.81</v>
-      </c>
-      <c r="F22" s="11">
-        <v>56.6</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3065.35</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:22" ht="16.5">
-      <c r="A23" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>4.91</v>
-      </c>
-      <c r="C23" s="11">
-        <v>104.81</v>
-      </c>
-      <c r="D23" s="11">
-        <v>36.5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="F23" s="11">
-        <v>52.83</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2825.44</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:22" ht="16.5">
-      <c r="A24" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4.91</v>
-      </c>
-      <c r="C24" s="11">
-        <v>188.88</v>
-      </c>
-      <c r="D24" s="11">
-        <v>19.2</v>
-      </c>
-      <c r="E24" s="11">
-        <v>9.81</v>
-      </c>
-      <c r="F24" s="11">
-        <v>52.17</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1840.03</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:22" ht="16.5">
-      <c r="A25" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>4.59</v>
-      </c>
-      <c r="C25" s="11">
-        <v>188.88</v>
-      </c>
-      <c r="D25" s="11">
-        <v>46.2</v>
-      </c>
-      <c r="E25" s="11">
-        <v>18.63</v>
-      </c>
-      <c r="F25" s="11">
-        <v>51.61</v>
-      </c>
-      <c r="G25" s="11">
-        <v>8329.25</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:22" ht="16.5">
-      <c r="A26" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>4.59</v>
-      </c>
-      <c r="C26" s="11">
-        <v>44.59</v>
-      </c>
-      <c r="D26" s="11">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="E26" s="11">
-        <v>25.79</v>
-      </c>
-      <c r="F26" s="11">
-        <v>51.36</v>
-      </c>
-      <c r="G26" s="11">
-        <v>17736.009999999998</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5">
-      <c r="A27" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>4.59</v>
-      </c>
-      <c r="C27" s="11">
-        <v>72.180000000000007</v>
-      </c>
-      <c r="D27" s="11">
-        <v>55.3</v>
-      </c>
-      <c r="E27" s="11">
-        <v>24.5</v>
-      </c>
-      <c r="F27" s="11">
-        <v>52.28</v>
-      </c>
-      <c r="G27" s="11">
-        <v>13295.32</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:22" ht="16.5">
-      <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>4.59</v>
-      </c>
-      <c r="C28" s="11">
-        <v>147.35</v>
-      </c>
-      <c r="D28" s="11">
-        <v>62.1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>21.17</v>
-      </c>
-      <c r="F28" s="11">
-        <v>52.03</v>
-      </c>
-      <c r="G28" s="11">
-        <v>12837.98</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
     </row>
     <row r="29" spans="1:22" ht="16.5">
-      <c r="A29" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>4.17</v>
-      </c>
-      <c r="C29" s="11">
-        <v>44.59</v>
-      </c>
-      <c r="D29" s="11">
-        <v>20.6</v>
-      </c>
-      <c r="E29" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="F29" s="11">
-        <v>55.58</v>
-      </c>
-      <c r="G29" s="11">
-        <v>3929.08</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:22" ht="16.5">
-      <c r="A30" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>4.17</v>
-      </c>
-      <c r="C30" s="11">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="D30" s="11">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E30" s="11">
-        <v>18.84</v>
-      </c>
-      <c r="F30" s="11">
-        <v>53.91</v>
-      </c>
-      <c r="G30" s="11">
-        <v>3215.84</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:22" ht="16.5">
-      <c r="A31" s="11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="C31" s="11">
-        <v>72.180000000000007</v>
-      </c>
-      <c r="D31" s="11">
-        <v>46.4</v>
-      </c>
-      <c r="E31" s="11">
-        <v>19.02</v>
-      </c>
-      <c r="F31" s="11">
-        <v>52.9</v>
-      </c>
-      <c r="G31" s="11">
-        <v>8754.33</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:22" ht="16.5">
-      <c r="A32" s="11">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C32" s="11">
-        <v>104.81</v>
-      </c>
-      <c r="D32" s="11">
-        <v>64.2</v>
-      </c>
-      <c r="E32" s="11">
-        <v>17.28</v>
-      </c>
-      <c r="F32" s="11">
-        <v>52.63</v>
-      </c>
-      <c r="G32" s="11">
-        <v>10949.03</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" ht="16.5">
-      <c r="A33" s="11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C33" s="11">
-        <v>113.31</v>
-      </c>
-      <c r="D33" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="E33" s="11">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F33" s="11">
-        <v>52.46</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1491.77</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="16.5">
-      <c r="A34" s="11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C34" s="11">
-        <v>100.89</v>
-      </c>
-      <c r="D34" s="11">
-        <v>22.5</v>
-      </c>
-      <c r="E34" s="11">
-        <v>7.83</v>
-      </c>
-      <c r="F34" s="11">
-        <v>55.21</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1824.03</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" ht="16.5">
-      <c r="A35" s="11">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C35" s="11">
-        <v>147.35</v>
-      </c>
-      <c r="D35" s="11">
-        <v>61.3</v>
-      </c>
-      <c r="E35" s="11">
-        <v>8.6</v>
-      </c>
-      <c r="F35" s="11">
-        <v>52.07</v>
-      </c>
-      <c r="G35" s="11">
-        <v>5148.0600000000004</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" ht="16.5">
-      <c r="A36" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C36" s="11">
-        <v>143.83000000000001</v>
-      </c>
-      <c r="D36" s="11">
-        <v>25.2</v>
-      </c>
-      <c r="E36" s="11">
-        <v>8.69</v>
-      </c>
-      <c r="F36" s="11">
-        <v>51.98</v>
-      </c>
-      <c r="G36" s="11">
-        <v>2136.3200000000002</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="16.5">
-      <c r="A37" s="11">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C37" s="11">
-        <v>149.46</v>
-      </c>
-      <c r="D37" s="11">
-        <v>22.9</v>
-      </c>
-      <c r="E37" s="11">
-        <v>8.61</v>
-      </c>
-      <c r="F37" s="11">
-        <v>52.71</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1952.56</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" ht="16.5">
-      <c r="A38" s="11">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C38" s="11">
-        <v>110.32</v>
-      </c>
-      <c r="D38" s="11">
-        <v>36.1</v>
-      </c>
-      <c r="E38" s="11">
-        <v>8.69</v>
-      </c>
-      <c r="F38" s="11">
-        <v>52.82</v>
-      </c>
-      <c r="G38" s="11">
-        <v>3111.93</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="16.5">
-      <c r="A39" s="11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>3.82</v>
-      </c>
-      <c r="C39" s="11">
-        <v>188.88</v>
-      </c>
-      <c r="D39" s="11">
-        <v>62.9</v>
-      </c>
-      <c r="E39" s="11">
-        <v>7.58</v>
-      </c>
-      <c r="F39" s="11">
-        <v>51.78</v>
-      </c>
-      <c r="G39" s="11">
-        <v>4629</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" ht="16.5">
-      <c r="A40" s="11">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3.79</v>
-      </c>
-      <c r="C40" s="11">
-        <v>149.16</v>
-      </c>
-      <c r="D40" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="E40" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="F40" s="11">
-        <v>10.94</v>
-      </c>
-      <c r="G40" s="11">
-        <v>33.520000000000003</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="16.5">
-      <c r="A41" s="11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="C41" s="11">
-        <v>143.82</v>
-      </c>
-      <c r="D41" s="11">
-        <v>114.6</v>
-      </c>
-      <c r="E41" s="11">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F41" s="11">
-        <v>51.63</v>
-      </c>
-      <c r="G41" s="11">
-        <v>4844.7299999999996</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="16.5">
-      <c r="A42" s="11">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C42" s="11">
-        <v>143.01</v>
-      </c>
-      <c r="D42" s="11">
-        <v>36.1</v>
-      </c>
-      <c r="E42" s="11">
-        <v>32.99</v>
-      </c>
-      <c r="F42" s="11">
-        <v>55.92</v>
-      </c>
-      <c r="G42" s="11">
-        <v>12480.95</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="16.5">
-      <c r="A43" s="11">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C43" s="11">
-        <v>167.32</v>
-      </c>
-      <c r="D43" s="11">
-        <v>34.9</v>
-      </c>
-      <c r="E43" s="11">
-        <v>32.67</v>
-      </c>
-      <c r="F43" s="11">
-        <v>55</v>
-      </c>
-      <c r="G43" s="11">
-        <v>11779.25</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="16.5">
-      <c r="A44" s="11">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C44" s="11">
-        <v>87.82</v>
-      </c>
-      <c r="D44" s="11">
-        <v>15.9</v>
-      </c>
-      <c r="E44" s="11">
-        <v>31.25</v>
-      </c>
-      <c r="F44" s="11">
-        <v>56.48</v>
-      </c>
-      <c r="G44" s="11">
-        <v>5271.1</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" ht="16.5">
-      <c r="A45" s="11">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C45" s="11">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="D45" s="11">
-        <v>22.7</v>
-      </c>
-      <c r="E45" s="11">
-        <v>31.33</v>
-      </c>
-      <c r="F45" s="11">
-        <v>55.34</v>
-      </c>
-      <c r="G45" s="11">
-        <v>7395.23</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="16.5">
-      <c r="A46" s="11">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C46" s="11">
-        <v>112.96</v>
-      </c>
-      <c r="D46" s="11">
-        <v>47.8</v>
-      </c>
-      <c r="E46" s="11">
-        <v>37.04</v>
-      </c>
-      <c r="F46" s="11">
-        <v>55.44</v>
-      </c>
-      <c r="G46" s="11">
-        <v>18421.419999999998</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="16.5">
-      <c r="A47" s="11">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="11">
-        <v>2.96</v>
-      </c>
-      <c r="C47" s="11">
-        <v>87.82</v>
-      </c>
-      <c r="D47" s="11">
-        <v>44.8</v>
-      </c>
-      <c r="E47" s="11">
-        <v>5.69</v>
-      </c>
-      <c r="F47" s="11">
-        <v>54.21</v>
-      </c>
-      <c r="G47" s="11">
-        <v>2595.65</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="16.5">
-      <c r="A48" s="11">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="11">
-        <v>2.96</v>
-      </c>
-      <c r="C48" s="11">
-        <v>167.32</v>
-      </c>
-      <c r="D48" s="11">
-        <v>46.5</v>
-      </c>
-      <c r="E48" s="11">
-        <v>5.56</v>
-      </c>
-      <c r="F48" s="11">
-        <v>53.95</v>
-      </c>
-      <c r="G48" s="11">
-        <v>2615.27</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="16.5">
-      <c r="A49" s="11">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="11">
-        <v>2.95</v>
-      </c>
-      <c r="C49" s="11">
-        <v>113.31</v>
-      </c>
-      <c r="D49" s="11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E49" s="11">
-        <v>22.81</v>
-      </c>
-      <c r="F49" s="11">
-        <v>48.79</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1733.17</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" ht="16.5">
-      <c r="A50" s="11">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="11">
-        <v>2.94</v>
-      </c>
-      <c r="C50" s="11">
-        <v>112.96</v>
-      </c>
-      <c r="D50" s="11">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E50" s="11">
-        <v>35.56</v>
-      </c>
-      <c r="F50" s="11">
-        <v>54.98</v>
-      </c>
-      <c r="G50" s="11">
-        <v>7204.65</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="16.5">
-      <c r="A51" s="11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="11">
-        <v>2.94</v>
-      </c>
-      <c r="C51" s="11">
-        <v>143.01</v>
-      </c>
-      <c r="D51" s="11">
-        <v>25.5</v>
-      </c>
-      <c r="E51" s="11">
-        <v>34.49</v>
-      </c>
-      <c r="F51" s="11">
-        <v>55.4</v>
-      </c>
-      <c r="G51" s="11">
-        <v>9129.77</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="16.5">
-      <c r="A52" s="11">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="11">
-        <v>2.94</v>
-      </c>
-      <c r="C52" s="11">
-        <v>157.88999999999999</v>
-      </c>
-      <c r="D52" s="11">
-        <v>22.9</v>
-      </c>
-      <c r="E52" s="11">
-        <v>30.18</v>
-      </c>
-      <c r="F52" s="11">
-        <v>55.46</v>
-      </c>
-      <c r="G52" s="11">
-        <v>7196.6</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="16.5">
-      <c r="A53" s="11">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="C53" s="11">
-        <v>143.01</v>
-      </c>
-      <c r="D53" s="11">
-        <v>125.1</v>
-      </c>
-      <c r="E53" s="11">
-        <v>15</v>
-      </c>
-      <c r="F53" s="11">
-        <v>52.81</v>
-      </c>
-      <c r="G53" s="11">
-        <v>18585.169999999998</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" ht="16.5">
-      <c r="A54" s="11">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="C54" s="11">
-        <v>87.82</v>
-      </c>
-      <c r="D54" s="11">
-        <v>139.1</v>
-      </c>
-      <c r="E54" s="11">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="F54" s="11">
-        <v>52.61</v>
-      </c>
-      <c r="G54" s="11">
-        <v>12406.55</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" ht="16.5">
-      <c r="A55" s="11">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="C55" s="11">
-        <v>112.55</v>
-      </c>
-      <c r="D55" s="11">
-        <v>99.5</v>
-      </c>
-      <c r="E55" s="11">
-        <v>14.32</v>
-      </c>
-      <c r="F55" s="11">
-        <v>53.92</v>
-      </c>
-      <c r="G55" s="11">
-        <v>14415.05</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="11"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5">
+    <row r="56" spans="1:11">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5036,7 +4060,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="11"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5"/>
@@ -5117,37 +4141,24 @@
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="5"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" s="9"/>
+      <c r="K64" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L29:V29"/>
+    <mergeCell ref="L28:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5155,11 +4166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5850,7 +4861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
@@ -6369,7 +5380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6417,6 +5428,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -6633,15 +5653,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6649,6 +5660,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6663,14 +5682,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
